--- a/MOEA/combined_pivot_excel_LNG.xlsx
+++ b/MOEA/combined_pivot_excel_LNG.xlsx
@@ -5,28 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariec\Desktop\code_running\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariec\Desktop\working documents\combining land cost - land limits and yield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD3EA3E-F364-4CBB-887B-3C80E00EED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887D4377-6DDB-4A7A-A956-78D8FA3FFE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32295" yWindow="180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -492,13 +481,10 @@
   <dimension ref="A1:BS108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -735,7 +721,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H2">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I2">
         <v>488.32595149529709</v>
@@ -950,7 +936,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H3">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I3">
         <v>443.31617741337152</v>
@@ -1165,7 +1151,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H4">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I4">
         <v>489.66924136285888</v>
@@ -1380,7 +1366,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H5">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I5">
         <v>497.5084305523938</v>
@@ -1595,7 +1581,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H6">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I6">
         <v>442.55570449877632</v>
@@ -1810,7 +1796,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H7">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I7">
         <v>464.11673227234718</v>
@@ -2025,7 +2011,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H8">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I8">
         <v>405.88272987157183</v>
@@ -2240,7 +2226,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H9">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I9">
         <v>372.7620250187872</v>
@@ -2455,7 +2441,7 @@
         <v>23.953222799999999</v>
       </c>
       <c r="H10">
-        <v>9822.3203336494753</v>
+        <v>20217.657549892781</v>
       </c>
       <c r="I10">
         <v>374.44509396022039</v>
@@ -2670,7 +2656,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H11">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I11">
         <v>416.23459334016422</v>
@@ -2885,7 +2871,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H12">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I12">
         <v>439.75513449083837</v>
@@ -3100,7 +3086,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H13">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I13">
         <v>415.8767241966134</v>
@@ -3315,7 +3301,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H14">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I14">
         <v>422.25677120023869</v>
@@ -3530,7 +3516,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H15">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I15">
         <v>418.79491739220327</v>
@@ -3745,7 +3731,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H16">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I16">
         <v>409.21328683558471</v>
@@ -3960,7 +3946,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H17">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I17">
         <v>399.66758797072129</v>
@@ -4175,7 +4161,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H18">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I18">
         <v>384.89132058148351</v>
@@ -4390,7 +4376,7 @@
         <v>23.782615799999999</v>
       </c>
       <c r="H19">
-        <v>9821.4428715676258</v>
+        <v>20070.50004057357</v>
       </c>
       <c r="I19">
         <v>377.98486859077752</v>
@@ -4605,7 +4591,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H20">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I20">
         <v>469.13180652601932</v>
@@ -4820,7 +4806,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H21">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I21">
         <v>474.1204169845534</v>
@@ -5035,7 +5021,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H22">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I22">
         <v>493.45096780073402</v>
@@ -5250,7 +5236,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H23">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I23">
         <v>484.28287196422139</v>
@@ -5465,7 +5451,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H24">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I24">
         <v>475.83907924112702</v>
@@ -5680,7 +5666,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H25">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I25">
         <v>473.45553338095237</v>
@@ -5895,7 +5881,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H26">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I26">
         <v>445.79327267407791</v>
@@ -6110,7 +6096,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H27">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I27">
         <v>396.67441295954188</v>
@@ -6325,7 +6311,7 @@
         <v>20.575204200000002</v>
       </c>
       <c r="H28">
-        <v>9806.2429457488124</v>
+        <v>17770.320680002271</v>
       </c>
       <c r="I28">
         <v>431.33259502286569</v>
@@ -6540,7 +6526,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H29">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I29">
         <v>220.06893499057969</v>
@@ -6755,7 +6741,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H30">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I30">
         <v>203.12823193206131</v>
@@ -6970,7 +6956,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H31">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I31">
         <v>395.22347458910428</v>
@@ -7185,7 +7171,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H32">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I32">
         <v>294.63574924422659</v>
@@ -7400,7 +7386,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H33">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I33">
         <v>265.47017075341449</v>
@@ -7615,7 +7601,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H34">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I34">
         <v>349.7947753324799</v>
@@ -7830,7 +7816,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H35">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I35">
         <v>362.93551928172229</v>
@@ -8045,7 +8031,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H36">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I36">
         <v>286.4027083548807</v>
@@ -8260,7 +8246,7 @@
         <v>26.205235200000001</v>
       </c>
       <c r="H37">
-        <v>9829.9168360480071</v>
+        <v>20726.125549952481</v>
       </c>
       <c r="I37">
         <v>276.54386524934893</v>
@@ -8475,7 +8461,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H38">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I38">
         <v>225.78608617653819</v>
@@ -8690,7 +8676,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H39">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I39">
         <v>236.48442628176079</v>
@@ -8905,7 +8891,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H40">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I40">
         <v>277.96387039651728</v>
@@ -9120,7 +9106,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H41">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I41">
         <v>327.13021165104158</v>
@@ -9335,7 +9321,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H42">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I42">
         <v>351.82872411990422</v>
@@ -9550,7 +9536,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H43">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I43">
         <v>401.84590170361378</v>
@@ -9765,7 +9751,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H44">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I44">
         <v>408.26155085814838</v>
@@ -9980,7 +9966,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H45">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I45">
         <v>408.64223191198357</v>
@@ -10195,7 +10181,7 @@
         <v>23.236673400000001</v>
       </c>
       <c r="H46">
-        <v>9815.342885762615</v>
+        <v>18415.220266314569</v>
       </c>
       <c r="I46">
         <v>394.16111598493029</v>
@@ -10410,7 +10396,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H47">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I47">
         <v>382.61149347667151</v>
@@ -10625,7 +10611,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H48">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I48">
         <v>382.59346076750421</v>
@@ -10840,7 +10826,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H49">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I49">
         <v>336.65012054018553</v>
@@ -11055,7 +11041,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H50">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I50">
         <v>481.89778726251319</v>
@@ -11270,7 +11256,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H51">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I51">
         <v>452.05168661616761</v>
@@ -11485,7 +11471,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H52">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I52">
         <v>387.51015359590627</v>
@@ -11700,7 +11686,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H53">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I53">
         <v>473.52367932206431</v>
@@ -11915,7 +11901,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H54">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I54">
         <v>491.21345069914992</v>
@@ -12130,7 +12116,7 @@
         <v>22.622488199999999</v>
       </c>
       <c r="H55">
-        <v>9807.8149279634599</v>
+        <v>16313.61820599099</v>
       </c>
       <c r="I55">
         <v>495.0853269398479</v>
@@ -12345,7 +12331,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H56">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I56">
         <v>374.65498433945959</v>
@@ -12560,7 +12546,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H57">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I57">
         <v>358.66712211763661</v>
@@ -12775,7 +12761,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H58">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I58">
         <v>372.62419920204962</v>
@@ -12990,7 +12976,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H59">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I59">
         <v>358.4538086988814</v>
@@ -13205,7 +13191,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H60">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I60">
         <v>363.81339869480041</v>
@@ -13420,7 +13406,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H61">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I61">
         <v>375.52334190510362</v>
@@ -13635,7 +13621,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H62">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I62">
         <v>327.92227495142703</v>
@@ -13850,7 +13836,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H63">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I63">
         <v>348.13600555844579</v>
@@ -14065,7 +14051,7 @@
         <v>26.171113800000001</v>
       </c>
       <c r="H64">
-        <v>9823.015677402751</v>
+        <v>18277.053495569311</v>
       </c>
       <c r="I64">
         <v>437.40139308646758</v>
@@ -14280,7 +14266,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H65">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I65">
         <v>344.54758138241789</v>
@@ -14495,7 +14481,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H66">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I66">
         <v>464.51734278532359</v>
@@ -14710,7 +14696,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H67">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I67">
         <v>496.56533268077658</v>
@@ -14925,7 +14911,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H68">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I68">
         <v>477.03666215060059</v>
@@ -15140,7 +15126,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H69">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I69">
         <v>467.33623729557291</v>
@@ -15355,7 +15341,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H70">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I70">
         <v>350.21815002954258</v>
@@ -15570,7 +15556,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H71">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I71">
         <v>430.90113691113908</v>
@@ -15785,7 +15771,7 @@
         <v>19.8927762</v>
       </c>
       <c r="H72">
-        <v>9788.1721390296152</v>
+        <v>11943.208058347551</v>
       </c>
       <c r="I72">
         <v>400.24391116490631</v>
@@ -16000,7 +15986,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H73">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I73">
         <v>237.3082526284141</v>
@@ -16215,7 +16201,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H74">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I74">
         <v>260.83259762800083</v>
@@ -16430,7 +16416,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H75">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I75">
         <v>319.18431854235132</v>
@@ -16645,7 +16631,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H76">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I76">
         <v>258.76320797063568</v>
@@ -16860,7 +16846,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H77">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I77">
         <v>320.47760818586482</v>
@@ -17075,7 +17061,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H78">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I78">
         <v>387.19161913988091</v>
@@ -17290,7 +17276,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H79">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I79">
         <v>165.41501938841611</v>
@@ -17505,7 +17491,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H80">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I80">
         <v>257.57592728096841</v>
@@ -17720,7 +17706,7 @@
         <v>19.346833799999999</v>
       </c>
       <c r="H81">
-        <v>9803.5988600122982</v>
+        <v>18032.423912192939</v>
       </c>
       <c r="I81">
         <v>390.29627666532349</v>
@@ -17935,7 +17921,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H82">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I82">
         <v>410.85498494127722</v>
@@ -18150,7 +18136,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H83">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I83">
         <v>415.69647810287921</v>
@@ -18365,7 +18351,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H84">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I84">
         <v>367.29872801992241</v>
@@ -18580,7 +18566,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H85">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I85">
         <v>404.92722098159209</v>
@@ -18795,7 +18781,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H86">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I86">
         <v>417.75447166104578</v>
@@ -19010,7 +18996,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H87">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I87">
         <v>346.36651118979557</v>
@@ -19225,7 +19211,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H88">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I88">
         <v>420.09376020314221</v>
@@ -19440,7 +19426,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H89">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I89">
         <v>385.96129206342198</v>
@@ -19655,7 +19641,7 @@
         <v>20.370475800000001</v>
       </c>
       <c r="H90">
-        <v>9812.0118569037695</v>
+        <v>20047.981138911291</v>
       </c>
       <c r="I90">
         <v>387.0658989046496</v>
@@ -19870,7 +19856,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H91">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I91">
         <v>204.3568155830944</v>
@@ -20085,7 +20071,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H92">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I92">
         <v>366.92027325520172</v>
@@ -20300,7 +20286,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H93">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I93">
         <v>437.93108769614719</v>
@@ -20515,7 +20501,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H94">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I94">
         <v>150.2906099148062</v>
@@ -20730,7 +20716,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H95">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I95">
         <v>341.72459422583239</v>
@@ -20945,7 +20931,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H96">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I96">
         <v>433.15480385424422</v>
@@ -21160,7 +21146,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H97">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I97">
         <v>238.00025672039811</v>
@@ -21375,7 +21361,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H98">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I98">
         <v>262.83128435507513</v>
@@ -21590,7 +21576,7 @@
         <v>18.766770000000001</v>
       </c>
       <c r="H99">
-        <v>9785.0537685391137</v>
+        <v>11933.569445275551</v>
       </c>
       <c r="I99">
         <v>408.48039720054589</v>
@@ -21805,7 +21791,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H100">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I100">
         <v>324.07675852121491</v>
@@ -22020,7 +22006,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H101">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I101">
         <v>299.8643855701049</v>
@@ -22235,7 +22221,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H102">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I102">
         <v>310.35156151709128</v>
@@ -22450,7 +22436,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H103">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I103">
         <v>408.27960396577379</v>
@@ -22665,7 +22651,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H104">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I104">
         <v>355.40979772321418</v>
@@ -22880,7 +22866,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H105">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I105">
         <v>374.85846011919512</v>
@@ -23095,7 +23081,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H106">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I106">
         <v>414.40306972401578</v>
@@ -23310,7 +23296,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H107">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I107">
         <v>420.71087307601118</v>
@@ -23525,7 +23511,7 @@
         <v>20.950539599999999</v>
       </c>
       <c r="H108">
-        <v>9810.4484574664766</v>
+        <v>18912.560457296029</v>
       </c>
       <c r="I108">
         <v>388.68408987521462</v>
